--- a/11/1/Manufacturero 2002 a 2021 - Mensual.xlsx
+++ b/11/1/Manufacturero 2002 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="244">
   <si>
     <t>Serie</t>
   </si>
@@ -743,6 +743,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1103,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M235"/>
+  <dimension ref="A1:M236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7012,7 +7015,15 @@
         <v>242</v>
       </c>
       <c r="B235">
-        <v>102.65</v>
+        <v>102.85</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>243</v>
+      </c>
+      <c r="B236">
+        <v>105.39</v>
       </c>
     </row>
   </sheetData>

--- a/11/1/Manufacturero 2002 a 2021 - Mensual.xlsx
+++ b/11/1/Manufacturero 2002 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="245">
   <si>
     <t>Serie</t>
   </si>
@@ -746,6 +746,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1106,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M236"/>
+  <dimension ref="A1:M237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6935,7 +6938,7 @@
         <v>232</v>
       </c>
       <c r="B225">
-        <v>96.48999999999999</v>
+        <v>96.42</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -7023,7 +7026,15 @@
         <v>243</v>
       </c>
       <c r="B236">
-        <v>105.39</v>
+        <v>105.24</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>244</v>
+      </c>
+      <c r="B237">
+        <v>106.6</v>
       </c>
     </row>
   </sheetData>

--- a/11/1/Manufacturero 2002 a 2021 - Mensual.xlsx
+++ b/11/1/Manufacturero 2002 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="246">
   <si>
     <t>Serie</t>
   </si>
@@ -749,6 +749,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1109,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M237"/>
+  <dimension ref="A1:M238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6946,7 +6949,7 @@
         <v>233</v>
       </c>
       <c r="B226">
-        <v>97.73</v>
+        <v>97.70999999999999</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -7034,7 +7037,15 @@
         <v>244</v>
       </c>
       <c r="B237">
-        <v>106.6</v>
+        <v>107.6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>245</v>
+      </c>
+      <c r="B238">
+        <v>101.86</v>
       </c>
     </row>
   </sheetData>
